--- a/output/Kategória_matrix.xlsx
+++ b/output/Kategória_matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW49"/>
+  <dimension ref="A1:AT46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,253 +436,238 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Blu-ray filmek</t>
+          <t>Albumok</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>Család és szülők</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Család és szülők</t>
+          <t>Diafilm</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>DVD Filmek</t>
+          <t>Életmód</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Egyéb termékek</t>
+          <t>Életrajz</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Életmód</t>
+          <t>Erotikus</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Életrajz</t>
+          <t>Ezotéria</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Erotikus</t>
+          <t>Fantasy</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Ezotéria</t>
+          <t>Filozófia</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Fantasy</t>
+          <t>Gasztronómia</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Gasztronómia</t>
+          <t>Gazdasági, közéleti, politikai</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Gazdasági, közéleti, politikai</t>
+          <t>Gyerekkönyvek</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Gyerekkönyvek</t>
+          <t>Gyereknevelés</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Gyereknevelés</t>
+          <t>Hobby, szabadidő</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Hangoskönyv</t>
+          <t>Idegen nyelvű</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Harry Potter</t>
+          <t>Ifjúsági</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Hobby, szabadidő</t>
+          <t>Ismeretterjesztő</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Horror</t>
+          <t>Kalandregények</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Ifjúsági</t>
+          <t>Karácsony</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Ismeretterjesztő</t>
+          <t>Kártyák</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Kalandregények</t>
+          <t>Képregények</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Kártyák</t>
+          <t>Krimi</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Képregények</t>
+          <t>Mesekönyv</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Kert, ház, otthon</t>
+          <t>Művészet</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Krimi</t>
+          <t>Nyelvkönyv, szótár</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Mesekönyv</t>
+          <t>Önfejlesztő könyvek</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Nyelvkönyv, szótár</t>
+          <t>Párkapcsolat, szerelem</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Önfejlesztő könyvek</t>
+          <t>Pszichológia</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Pszichológia</t>
+          <t>Regény</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Regény</t>
+          <t>Romantikus</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Romantikus</t>
+          <t>Science fiction</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Science fiction</t>
+          <t>Sport</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Sport</t>
+          <t>Szakácskönyv</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
+          <t>Szakkönyvek</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
           <t>Szépirodalom</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Szórakoztató irodalom</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Tankönyvek, segédkönyvek</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Társadalomtudomány</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Térképek</t>
-        </is>
-      </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
+          <t>Társasjátékok</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Táskák</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
           <t>Thriller</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Történelmi</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Tudományos könyvek</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>Utazás</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Vallás, mitológia</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Vegyes</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>Párkapcsolat, szerelem</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>Szakácskönyv</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>Szakkönyvek</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>Young Adult</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Blu-ray filmek</t>
+          <t>Albumok</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -814,35 +799,26 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>Család és szülők</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -866,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -890,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -908,13 +884,13 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -965,22 +941,13 @@
         <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Család és szülők</t>
+          <t>Diafilm</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -990,68 +957,68 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>3</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
       <c r="Y4" t="n">
         <v>0</v>
       </c>
@@ -1065,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -1083,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
         <v>0</v>
@@ -1116,41 +1083,32 @@
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>DVD Filmek</t>
+          <t>Életmód</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1162,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1171,10 +1129,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -1183,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -1210,10 +1168,10 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
@@ -1228,25 +1186,25 @@
         <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL5" t="n">
         <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
@@ -1261,28 +1219,19 @@
         <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS5" t="n">
         <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Egyéb termékek</t>
+          <t>Életrajz</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1292,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1319,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1334,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1349,13 +1298,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
@@ -1370,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
@@ -1388,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK6" t="n">
         <v>0</v>
@@ -1397,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AN6" t="n">
         <v>0</v>
@@ -1418,22 +1367,13 @@
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Életmód</t>
+          <t>Erotikus</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1443,47 +1383,47 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>50</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>4</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
@@ -1494,37 +1434,37 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AF7" t="n">
         <v>0</v>
@@ -1536,16 +1476,16 @@
         <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AL7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
@@ -1557,34 +1497,25 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ7" t="n">
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS7" t="n">
         <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Életrajz</t>
+          <t>Ezotéria</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1600,61 +1531,61 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
+        <v>124</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>9</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>12</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>3</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1663,16 +1594,16 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
@@ -1693,13 +1624,13 @@
         <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL8" t="n">
         <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN8" t="n">
         <v>0</v>
@@ -1720,22 +1651,13 @@
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Erotikus</t>
+          <t>Fantasy</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1754,58 +1676,58 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>42</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>38</v>
+      </c>
+      <c r="R9" t="n">
+        <v>21</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W9" t="n">
         <v>4</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1823,70 +1745,61 @@
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="AF9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS9" t="n">
         <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Ezotéria</t>
+          <t>Filozófia</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1914,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1926,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1953,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1965,13 +1878,13 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -1995,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
         <v>0</v>
@@ -2013,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2022,22 +1935,13 @@
         <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fantasy</t>
+          <t>Gasztronómia</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2050,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2062,91 +1966,91 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>74</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>8</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7</v>
+      </c>
+      <c r="O11" t="n">
+        <v>10</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>4</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>17</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
-      <c r="T11" t="n">
-        <v>4</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>10</v>
-      </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL11" t="n">
         <v>0</v>
@@ -2174,21 +2078,12 @@
       </c>
       <c r="AT11" t="n">
         <v>0</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Gasztronómia</t>
+          <t>Gazdasági, közéleti, politikai</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2198,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -2207,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -2222,16 +2117,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -2240,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -2249,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2261,19 +2156,19 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
         <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -2291,10 +2186,10 @@
         <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
         <v>0</v>
@@ -2306,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO12" t="n">
         <v>0</v>
@@ -2321,104 +2216,95 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Gazdasági, közéleti, politikai</t>
+          <t>Gyerekkönyvek</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>6</v>
+        <v>1144</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB13" t="n">
         <v>0</v>
@@ -2427,37 +2313,37 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AF13" t="n">
         <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO13" t="n">
         <v>0</v>
@@ -2466,31 +2352,22 @@
         <v>0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Gyerekkönyvek</t>
+          <t>Gyereknevelés</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -2503,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -2515,22 +2392,22 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="N14" t="n">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -2542,64 +2419,64 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
         <v>6</v>
       </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>1</v>
-      </c>
       <c r="AI14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
         <v>0</v>
@@ -2608,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO14" t="n">
         <v>0</v>
@@ -2617,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -2626,22 +2503,13 @@
         <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Gyereknevelés</t>
+          <t>Hobby, szabadidő</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2651,16 +2519,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -2672,28 +2540,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -2702,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2711,25 +2579,25 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB15" t="n">
         <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE15" t="n">
         <v>0</v>
@@ -2738,22 +2606,22 @@
         <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
@@ -2777,22 +2645,13 @@
         <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Hangoskönyv</t>
+          <t>Idegen nyelvű</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2829,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -2838,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -2928,22 +2787,13 @@
         <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Harry Potter</t>
+          <t>Ifjúsági</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2962,13 +2812,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2980,46 +2830,46 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>236</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
@@ -3031,16 +2881,16 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
         <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH17" t="n">
         <v>0</v>
@@ -3049,16 +2899,16 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN17" t="n">
         <v>0</v>
@@ -3067,34 +2917,25 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AS17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Hobby, szabadidő</t>
+          <t>Ismeretterjesztő</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -3107,19 +2948,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -3128,43 +2969,43 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="R18" t="n">
+        <v>108</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
         <v>7</v>
       </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -3173,19 +3014,19 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AF18" t="n">
         <v>0</v>
@@ -3197,19 +3038,19 @@
         <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AN18" t="n">
         <v>0</v>
@@ -3218,34 +3059,25 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AS18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Horror</t>
+          <t>Kalandregények</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -3276,13 +3108,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -3300,13 +3132,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3333,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
         <v>0</v>
@@ -3348,13 +3180,13 @@
         <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL19" t="n">
         <v>0</v>
@@ -3363,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO19" t="n">
         <v>0</v>
@@ -3381,22 +3213,13 @@
         <v>0</v>
       </c>
       <c r="AT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Ifjúsági</t>
+          <t>Karácsony</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -3421,91 +3244,91 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
         <v>4</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>7</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>17</v>
-      </c>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20" t="n">
         <v>0</v>
@@ -3514,13 +3337,13 @@
         <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ20" t="n">
         <v>0</v>
@@ -3532,32 +3355,23 @@
         <v>0</v>
       </c>
       <c r="AT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Ismeretterjesztő</t>
+          <t>Kártyák</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -3566,10 +3380,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -3581,97 +3395,97 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="N21" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>38</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
         <v>4</v>
       </c>
-      <c r="U21" t="n">
-        <v>17</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>3</v>
-      </c>
       <c r="AL21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM21" t="n">
         <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AQ21" t="n">
         <v>0</v>
@@ -3683,22 +3497,13 @@
         <v>0</v>
       </c>
       <c r="AT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Kalandregények</t>
+          <t>Képregények</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -3723,13 +3528,13 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3750,65 +3555,65 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>28</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
         <v>3</v>
       </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="n">
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK22" t="n">
         <v>3</v>
       </c>
-      <c r="AF22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>0</v>
-      </c>
       <c r="AL22" t="n">
         <v>0</v>
       </c>
@@ -3825,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
@@ -3835,21 +3640,12 @@
       </c>
       <c r="AT22" t="n">
         <v>0</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Kártyák</t>
+          <t>Krimi</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -3859,25 +3655,25 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -3886,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -3898,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3916,32 +3712,32 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
+        <v>50</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
         <v>4</v>
       </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0</v>
-      </c>
       <c r="AF23" t="n">
         <v>0</v>
       </c>
@@ -3955,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL23" t="n">
         <v>0</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN23" t="n">
         <v>0</v>
@@ -3973,10 +3769,10 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR23" t="n">
         <v>0</v>
@@ -3985,22 +3781,13 @@
         <v>0</v>
       </c>
       <c r="AT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Képregények</t>
+          <t>Mesekönyv</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -4010,74 +3797,74 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
+        <v>5</v>
+      </c>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2</v>
+      </c>
+      <c r="X24" t="n">
+        <v>178</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
         <v>3</v>
       </c>
-      <c r="U24" t="n">
-        <v>1</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1</v>
-      </c>
       <c r="AA24" t="n">
         <v>0</v>
       </c>
@@ -4085,73 +3872,64 @@
         <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AF24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH24" t="n">
         <v>0</v>
       </c>
       <c r="AI24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ24" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="AK24" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
       </c>
       <c r="AN24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AS24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Kert, ház, otthon</t>
+          <t>Művészet</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -4167,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -4185,13 +3963,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -4212,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -4224,22 +4002,22 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="n">
         <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
         <v>0</v>
@@ -4254,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="AI25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ25" t="n">
         <v>0</v>
@@ -4263,10 +4041,10 @@
         <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN25" t="n">
         <v>0</v>
@@ -4278,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
@@ -4287,22 +4065,13 @@
         <v>0</v>
       </c>
       <c r="AT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Krimi</t>
+          <t>Nyelvkönyv, szótár</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -4333,25 +4102,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -4360,10 +4129,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -4372,61 +4141,61 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AA26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" t="n">
         <v>0</v>
       </c>
       <c r="AC26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF26" t="n">
         <v>0</v>
       </c>
       <c r="AG26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH26" t="n">
         <v>0</v>
       </c>
       <c r="AI26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
         <v>5</v>
       </c>
-      <c r="AK26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>0</v>
-      </c>
       <c r="AM26" t="n">
         <v>0</v>
       </c>
       <c r="AN26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AO26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ26" t="n">
         <v>0</v>
@@ -4438,140 +4207,131 @@
         <v>0</v>
       </c>
       <c r="AT26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Mesekönyv</t>
+          <t>Önfejlesztő könyvek</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL27" t="n">
         <v>3</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>22</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>0</v>
-      </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO27" t="n">
         <v>0</v>
@@ -4580,44 +4340,35 @@
         <v>0</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS27" t="n">
         <v>0</v>
       </c>
       <c r="AT27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Nyelvkönyv, szótár</t>
+          <t>Párkapcsolat, szerelem</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -4644,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -4656,7 +4407,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -4683,10 +4434,10 @@
         <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC28" t="n">
         <v>0</v>
@@ -4713,13 +4464,13 @@
         <v>0</v>
       </c>
       <c r="AK28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28" t="n">
         <v>0</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN28" t="n">
         <v>0</v>
@@ -4740,32 +4491,23 @@
         <v>0</v>
       </c>
       <c r="AT28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Önfejlesztő könyvek</t>
+          <t>Pszichológia</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -4774,31 +4516,31 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -4813,100 +4555,91 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR29" t="n">
         <v>3</v>
       </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>0</v>
-      </c>
       <c r="AS29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Pszichológia</t>
+          <t>Regény</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -4922,46 +4655,46 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -4970,16 +4703,16 @@
         <v>2</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z30" t="n">
         <v>0</v>
@@ -4994,37 +4727,37 @@
         <v>2</v>
       </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG30" t="n">
         <v>0</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI30" t="n">
         <v>0</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM30" t="n">
         <v>3</v>
       </c>
-      <c r="AM30" t="n">
-        <v>0</v>
-      </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO30" t="n">
         <v>0</v>
@@ -5033,31 +4766,22 @@
         <v>0</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS30" t="n">
         <v>0</v>
       </c>
       <c r="AT30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Regény</t>
+          <t>Romantikus</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -5076,28 +4800,28 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -5106,109 +4830,100 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>4</v>
+      </c>
+      <c r="X31" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>52</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
         <v>3</v>
       </c>
-      <c r="U31" t="n">
-        <v>2</v>
-      </c>
-      <c r="V31" t="n">
-        <v>3</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>0</v>
-      </c>
       <c r="AI31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ31" t="n">
         <v>15</v>
       </c>
       <c r="AK31" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AM31" t="n">
         <v>0</v>
       </c>
       <c r="AN31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS31" t="n">
         <v>0</v>
       </c>
       <c r="AT31" t="n">
         <v>0</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Romantikus</t>
+          <t>Science fiction</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -5233,13 +4948,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -5266,19 +4981,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -5296,44 +5011,44 @@
         <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP32" t="n">
         <v>5</v>
       </c>
-      <c r="AF32" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ32" t="n">
         <v>0</v>
       </c>
@@ -5344,22 +5059,13 @@
         <v>0</v>
       </c>
       <c r="AT32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Science fiction</t>
+          <t>Sport</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -5372,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -5396,19 +5102,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -5417,25 +5123,25 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
         <v>3</v>
       </c>
-      <c r="U33" t="n">
-        <v>2</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>2</v>
-      </c>
       <c r="Y33" t="n">
         <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA33" t="n">
         <v>0</v>
@@ -5444,13 +5150,13 @@
         <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF33" t="n">
         <v>0</v>
@@ -5459,16 +5165,16 @@
         <v>6</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL33" t="n">
         <v>0</v>
@@ -5477,13 +5183,13 @@
         <v>0</v>
       </c>
       <c r="AN33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ33" t="n">
         <v>0</v>
@@ -5495,22 +5201,13 @@
         <v>0</v>
       </c>
       <c r="AT33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Sport</t>
+          <t>Szakácskönyv</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -5523,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -5535,25 +5232,25 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N34" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -5568,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -5589,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB34" t="n">
         <v>0</v>
@@ -5598,31 +5295,31 @@
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF34" t="n">
         <v>0</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH34" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="AI34" t="n">
         <v>0</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM34" t="n">
         <v>0</v>
@@ -5646,22 +5343,13 @@
         <v>0</v>
       </c>
       <c r="AT34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Szépirodalom</t>
+          <t>Szakkönyvek</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -5671,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -5680,31 +5368,31 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -5713,16 +5401,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -5731,88 +5419,79 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR35" t="n">
         <v>3</v>
       </c>
-      <c r="AA35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>0</v>
-      </c>
       <c r="AS35" t="n">
         <v>0</v>
       </c>
       <c r="AT35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Szórakoztató irodalom</t>
+          <t>Szépirodalom</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -5825,10 +5504,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -5837,133 +5516,124 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="N36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X36" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB36" t="n">
         <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE36" t="n">
         <v>15</v>
       </c>
       <c r="AF36" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>84</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>31</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP36" t="n">
         <v>3</v>
       </c>
-      <c r="AH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>1</v>
-      </c>
       <c r="AQ36" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AR36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS36" t="n">
         <v>0</v>
       </c>
       <c r="AT36" t="n">
         <v>0</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Tankönyvek, segédkönyvek</t>
+          <t>Szórakoztató irodalom</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -5976,145 +5646,136 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
         <v>3</v>
       </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="X37" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
       </c>
       <c r="Z37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE37" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AK37" t="n">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="AL37" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AM37" t="n">
         <v>0</v>
       </c>
       <c r="AN37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AR37" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AS37" t="n">
         <v>0</v>
       </c>
       <c r="AT37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Társadalomtudomány</t>
+          <t>Tankönyvek, segédkönyvek</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -6133,13 +5794,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -6151,22 +5812,22 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -6175,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -6184,88 +5845,79 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z38" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB38" t="n">
         <v>0</v>
       </c>
       <c r="AC38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>296</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR38" t="n">
         <v>3</v>
       </c>
-      <c r="AE38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR38" t="n">
-        <v>0</v>
-      </c>
       <c r="AS38" t="n">
         <v>0</v>
       </c>
       <c r="AT38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Térképek</t>
+          <t>Társadalomtudomány</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -6278,16 +5930,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -6302,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -6314,10 +5966,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -6332,28 +5984,28 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z39" t="n">
         <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE39" t="n">
         <v>0</v>
@@ -6371,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK39" t="n">
         <v>0</v>
@@ -6380,7 +6032,7 @@
         <v>0</v>
       </c>
       <c r="AM39" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="AN39" t="n">
         <v>0</v>
@@ -6392,7 +6044,7 @@
         <v>0</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AR39" t="n">
         <v>0</v>
@@ -6401,22 +6053,13 @@
         <v>0</v>
       </c>
       <c r="AT39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Thriller</t>
+          <t>Társasjátékok</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -6441,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -6450,13 +6093,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -6471,13 +6114,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -6486,46 +6129,46 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
       </c>
       <c r="Z40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB40" t="n">
         <v>0</v>
       </c>
       <c r="AC40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH40" t="n">
         <v>0</v>
       </c>
       <c r="AI40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL40" t="n">
         <v>0</v>
@@ -6534,13 +6177,13 @@
         <v>0</v>
       </c>
       <c r="AN40" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AO40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ40" t="n">
         <v>0</v>
@@ -6552,22 +6195,13 @@
         <v>0</v>
       </c>
       <c r="AT40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Történelmi</t>
+          <t>Táskák</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -6625,10 +6259,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -6637,13 +6271,13 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
       </c>
       <c r="Z41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA41" t="n">
         <v>0</v>
@@ -6652,31 +6286,31 @@
         <v>0</v>
       </c>
       <c r="AC41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
       </c>
       <c r="AE41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF41" t="n">
         <v>0</v>
       </c>
       <c r="AG41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH41" t="n">
         <v>0</v>
       </c>
       <c r="AI41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41" t="n">
         <v>0</v>
@@ -6685,13 +6319,13 @@
         <v>0</v>
       </c>
       <c r="AN41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AP41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ41" t="n">
         <v>0</v>
@@ -6703,22 +6337,13 @@
         <v>0</v>
       </c>
       <c r="AT41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Tudományos könyvek</t>
+          <t>Thriller</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -6737,13 +6362,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -6767,67 +6392,67 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>6</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="n">
         <v>3</v>
       </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>1</v>
-      </c>
       <c r="AK42" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AL42" t="n">
         <v>0</v>
@@ -6836,16 +6461,16 @@
         <v>0</v>
       </c>
       <c r="AN42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AR42" t="n">
         <v>0</v>
@@ -6854,22 +6479,13 @@
         <v>0</v>
       </c>
       <c r="AT42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Utazás</t>
+          <t>Történelmi</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -6894,10 +6510,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -6906,10 +6522,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="N43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -6918,10 +6534,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -6933,22 +6549,22 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z43" t="n">
         <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB43" t="n">
         <v>0</v>
@@ -6957,10 +6573,10 @@
         <v>0</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF43" t="n">
         <v>0</v>
@@ -6975,16 +6591,16 @@
         <v>0</v>
       </c>
       <c r="AJ43" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AK43" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AL43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM43" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AN43" t="n">
         <v>0</v>
@@ -6993,34 +6609,25 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AQ43" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="AR43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS43" t="n">
         <v>0</v>
       </c>
       <c r="AT43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Vallás, mitológia</t>
+          <t>Tudományos könyvek</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -7033,19 +6640,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -7057,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -7069,10 +6676,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -7090,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -7099,19 +6706,19 @@
         <v>0</v>
       </c>
       <c r="AA44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB44" t="n">
         <v>0</v>
       </c>
       <c r="AC44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF44" t="n">
         <v>0</v>
@@ -7123,16 +6730,16 @@
         <v>0</v>
       </c>
       <c r="AI44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK44" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM44" t="n">
         <v>0</v>
@@ -7147,31 +6754,22 @@
         <v>0</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR44" t="n">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="AS44" t="n">
         <v>0</v>
       </c>
       <c r="AT44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Vegyes</t>
+          <t>Vallás, mitológia</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -7205,10 +6803,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -7220,10 +6818,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -7241,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -7256,7 +6854,7 @@
         <v>0</v>
       </c>
       <c r="AC45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -7304,25 +6902,16 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AT45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Párkapcsolat, szerelem</t>
+          <t>Vegyes</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -7350,7 +6939,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -7407,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="AC46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -7431,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AK46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46" t="n">
         <v>0</v>
@@ -7458,469 +7047,7 @@
         <v>0</v>
       </c>
       <c r="AT46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>Szakácskönyv</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1</v>
-      </c>
-      <c r="S47" t="n">
-        <v>0</v>
-      </c>
-      <c r="T47" t="n">
-        <v>0</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1</v>
-      </c>
-      <c r="V47" t="n">
-        <v>0</v>
-      </c>
-      <c r="W47" t="n">
-        <v>0</v>
-      </c>
-      <c r="X47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU47" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>Szakkönyvek</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>1</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" t="n">
-        <v>0</v>
-      </c>
-      <c r="S48" t="n">
-        <v>0</v>
-      </c>
-      <c r="T48" t="n">
-        <v>0</v>
-      </c>
-      <c r="U48" t="n">
-        <v>1</v>
-      </c>
-      <c r="V48" t="n">
-        <v>0</v>
-      </c>
-      <c r="W48" t="n">
-        <v>0</v>
-      </c>
-      <c r="X48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>Young Adult</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" t="n">
-        <v>0</v>
-      </c>
-      <c r="S49" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" t="n">
-        <v>0</v>
-      </c>
-      <c r="U49" t="n">
-        <v>0</v>
-      </c>
-      <c r="V49" t="n">
-        <v>1</v>
-      </c>
-      <c r="W49" t="n">
-        <v>0</v>
-      </c>
-      <c r="X49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW49" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
